--- a/Parallel_Prog/laba3/tests.xlsx
+++ b/Parallel_Prog/laba3/tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbikm\OneDrive\Рабочий стол\study\3_2 курс\Parallel_Prog\laba3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RSOTMBOBIK\Desktop\study\3_2\Parallel_Prog\laba3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A56541-D6BD-4650-968D-0E2A7FC3BBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9EE0F-64C3-427E-8880-C5C32AB4C029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -69,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -141,39 +152,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1378,8 +1386,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1674,599 +1682,646 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
+      <c r="B3" s="8"/>
+      <c r="C3" s="6">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>0.19580500000000001</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <v>0.207431</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
         <v>0.24603</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6">
         <v>1.25651</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6">
         <v>1.18608</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>0.40595900000000001</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
         <v>0.390878</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
         <v>0.495888</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6">
         <v>1.2215199999999999</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6">
         <v>1.2686500000000001</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4">
+      <c r="D5" s="10"/>
+      <c r="E5" s="6">
         <v>0.78078099999999995</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>0.73625200000000002</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
         <v>1.0027699999999999</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6">
         <v>1.2843199999999999</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6">
         <v>1.3620000000000001</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4">
+      <c r="D6" s="10"/>
+      <c r="E6" s="6">
         <v>1.5664499999999999</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>1.52555</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
         <v>2.0999099999999999</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
         <v>1.34056</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6">
         <v>1.37649</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4">
+      <c r="D7" s="10"/>
+      <c r="E7" s="6">
         <v>3.3698700000000001</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>3.4483100000000002</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6">
         <v>6.3784999999999998</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6">
         <v>1.8928</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6">
         <v>1.84975</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4">
+      <c r="D8" s="10"/>
+      <c r="E8" s="6">
         <v>8.1083499999999997</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
         <v>6.5314199999999998</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
         <v>8.9681700000000006</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
         <v>1.1060399999999999</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
         <v>1.3730800000000001</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4">
+      <c r="D9" s="10"/>
+      <c r="E9" s="6">
         <v>14.821</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>13.5297</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>17.645</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6">
         <v>1.1905399999999999</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6">
         <v>1.3041700000000001</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4">
+      <c r="D10" s="10"/>
+      <c r="E10" s="6">
         <v>37.214500000000001</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>36.002000000000002</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>47.567</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
         <v>1.2782</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6">
         <v>1.3211999999999999</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4">
+      <c r="D11" s="10"/>
+      <c r="E11" s="6">
         <v>63.6678</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
         <v>56.534399999999998</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
         <v>74.864999999999995</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
         <v>1.17587</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
         <v>1.3242400000000001</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4">
+      <c r="D12" s="10"/>
+      <c r="E12" s="6">
         <v>155.482</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
         <v>140.49299999999999</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
         <v>172.411</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
         <v>1.1088800000000001</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6">
         <v>1.2271799999999999</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+    <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2">
         <v>0.19580500000000001</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>0.207431</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>0.24603</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="2">
         <v>0.40595900000000001</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>0.390878</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>0.495888</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>0.78078099999999995</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <v>0.73625200000000002</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="2">
         <v>1.0027699999999999</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>1.5664499999999999</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <v>1.52555</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="2">
         <v>2.0999099999999999</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="2">
         <v>3.3698700000000001</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="2">
         <v>3.4483100000000002</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="2">
         <v>6.3784999999999998</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="2">
         <v>8.1083499999999997</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="2">
         <v>6.5314199999999998</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="2">
         <v>8.9681700000000006</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="2">
         <v>14.821</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="2">
         <v>13.5297</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2">
         <v>17.645</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="2">
         <v>37.214500000000001</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="2">
         <v>36.002000000000002</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2">
         <v>47.567</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="2">
         <v>63.6678</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>56.534399999999998</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2">
         <v>74.864999999999995</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="2">
         <v>155.482</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2">
         <v>140.49299999999999</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="2">
         <v>172.411</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
@@ -2275,64 +2330,17 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Parallel_Prog/laba3/tests.xlsx
+++ b/Parallel_Prog/laba3/tests.xlsx
@@ -5,58 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RSOTMBOBIK\Desktop\study\3_2\Parallel_Prog\laba3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbikm\OneDrive\Рабочий стол\study\3_2 курс\Parallel_Prog\laba3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9EE0F-64C3-427E-8880-C5C32AB4C029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C1D644-69D5-4253-A9AF-32EDAF2F9FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="1" r:id="rId1"/>
+    <sheet name="4" sheetId="6" r:id="rId2"/>
+    <sheet name="6" sheetId="7" r:id="rId3"/>
+    <sheet name="8" sheetId="8" r:id="rId4"/>
+    <sheet name="res" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t>Номер теста</t>
   </si>
   <si>
     <t>Размер
 полинома</t>
-  </si>
-  <si>
-    <t>Линейная 
-реализация, с</t>
-  </si>
-  <si>
-    <t>MPI, c</t>
-  </si>
-  <si>
-    <t>OpenMP, c</t>
-  </si>
-  <si>
-    <t>Срав.линейной 
-и MPI</t>
   </si>
   <si>
     <t>Срав.линейной 
@@ -66,13 +45,63 @@
     <t>size</t>
   </si>
   <si>
-    <t>mpi</t>
-  </si>
-  <si>
     <t>omp</t>
   </si>
   <si>
     <t>line</t>
+  </si>
+  <si>
+    <t>POSIX, c</t>
+  </si>
+  <si>
+    <t>posix</t>
+  </si>
+  <si>
+    <t>Срав.линейной 
+и POSIX</t>
+  </si>
+  <si>
+    <t>Лин,с</t>
+  </si>
+  <si>
+    <t>2 th</t>
+  </si>
+  <si>
+    <t>4 th</t>
+  </si>
+  <si>
+    <t>6 th</t>
+  </si>
+  <si>
+    <t>8 th</t>
+  </si>
+  <si>
+    <t>MPI, c</t>
+  </si>
+  <si>
+    <t>Лин.с</t>
+  </si>
+  <si>
+    <t>Срав.линейной
+и MPI</t>
+  </si>
+  <si>
+    <t>mpi</t>
+  </si>
+  <si>
+    <t>OpenMP,с</t>
+  </si>
+  <si>
+    <t>Срав,линейной
+и MPI</t>
+  </si>
+  <si>
+    <t>Срав,линейной 
+и OpenMP</t>
+  </si>
+  <si>
+    <t>Срав,линейной 
+и POSIX</t>
   </si>
 </sst>
 </file>
@@ -99,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -148,11 +177,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,6 +257,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -182,6 +274,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -215,69 +343,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>График</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.46116192411924112"/>
-          <c:y val="1.8779342723004695E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -285,18 +350,10 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mpi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>mpi</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -312,7 +369,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$25</c:f>
+              <c:f>'2'!$A$16:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -351,39 +408,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$25</c:f>
+              <c:f>'2'!$B$16:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.19580500000000001</c:v>
+                  <c:v>0.203962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40595900000000001</c:v>
+                  <c:v>0.39724199999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78078099999999995</c:v>
+                  <c:v>0.81787799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5664499999999999</c:v>
+                  <c:v>1.6710100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3698700000000001</c:v>
+                  <c:v>3.4822199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1083499999999997</c:v>
+                  <c:v>6.7426599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.821</c:v>
+                  <c:v>14.0753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.214500000000001</c:v>
+                  <c:v>30.581900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.6678</c:v>
+                  <c:v>87.746700000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>155.482</c:v>
+                  <c:v>195.47200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,28 +448,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9D45-46F8-BF72-5214052EBEB8}"/>
+              <c16:uniqueId val="{00000005-CF2F-4E29-9F89-4E2348176F56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>omp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>posix</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -423,7 +472,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$25</c:f>
+              <c:f>'2'!$A$16:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -462,39 +511,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$C$25</c:f>
+              <c:f>'2'!$C$16:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.207431</c:v>
+                  <c:v>0.17810699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.390878</c:v>
+                  <c:v>0.38877200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73625200000000002</c:v>
+                  <c:v>0.78982200000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.52555</c:v>
+                  <c:v>1.6617500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4483100000000002</c:v>
+                  <c:v>3.1505700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5314199999999998</c:v>
+                  <c:v>6.5107900000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.5297</c:v>
+                  <c:v>14.3178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.002000000000002</c:v>
+                  <c:v>28.967700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.534399999999998</c:v>
+                  <c:v>87.471299999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140.49299999999999</c:v>
+                  <c:v>192.87299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,28 +551,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9D45-46F8-BF72-5214052EBEB8}"/>
+              <c16:uniqueId val="{00000006-CF2F-4E29-9F89-4E2348176F56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>line</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>omp</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -534,7 +575,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$25</c:f>
+              <c:f>'2'!$A$16:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -573,39 +614,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$D$25</c:f>
+              <c:f>'2'!$D$16:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24603</c:v>
+                  <c:v>0.19120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.495888</c:v>
+                  <c:v>0.38170399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0027699999999999</c:v>
+                  <c:v>0.741676</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0999099999999999</c:v>
+                  <c:v>1.5255300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3784999999999998</c:v>
+                  <c:v>3.0367099999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9681700000000006</c:v>
+                  <c:v>6.5661699999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.645</c:v>
+                  <c:v>13.964399999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.567</c:v>
+                  <c:v>28.882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.864999999999995</c:v>
+                  <c:v>86.482500000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>172.411</c:v>
+                  <c:v>197.40899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,7 +654,110 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9D45-46F8-BF72-5214052EBEB8}"/>
+              <c16:uniqueId val="{00000007-CF2F-4E29-9F89-4E2348176F56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$E$16:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24826500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50024999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97616800000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0343900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3682800000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7961500000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.4499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.594499999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>109.889</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238.31299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CF2F-4E29-9F89-4E2348176F56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -626,11 +770,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1005557935"/>
-        <c:axId val="1005551215"/>
+        <c:axId val="1261273007"/>
+        <c:axId val="1261267727"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1005557935"/>
+        <c:axId val="1261273007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +817,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005551215"/>
+        <c:crossAx val="1261267727"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -681,7 +825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1005551215"/>
+        <c:axId val="1261267727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,10 +876,2669 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005557935"/>
+        <c:crossAx val="1261273007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mpi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4'!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.197405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37165199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76242500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.86988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2449300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7799699999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.049099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.117199999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.936700000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153.78899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3CD2-4CC1-A958-D44AB69877BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>posix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4'!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.166486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36700100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72821899999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4688600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0659299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2731899999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.469900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.556899999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.850700000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145.99700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3CD2-4CC1-A958-D44AB69877BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4'!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.228575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37588700000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73197299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4668000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0430899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5192199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.677999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139.75299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3CD2-4CC1-A958-D44AB69877BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4'!$E$16:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.26203900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48961900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99923200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0839599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6830499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6430100000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.834700000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.6449</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.563599999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175.40600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3CD2-4CC1-A958-D44AB69877BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1261273967"/>
+        <c:axId val="1261274927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1261273967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261274927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1261274927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261273967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6'!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22224099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38862799999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80991400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6478600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9149799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9365300000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.8932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.850700000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.0672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>151.16900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A96D-4F40-B51B-4E7D1CF67333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6'!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>posix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6'!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.174152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38606800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73936500000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6529499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0615899999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9301700000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.7646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.648600000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.861699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>148.917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A96D-4F40-B51B-4E7D1CF67333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6'!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>omp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6'!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24824499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40198499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72420099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5342199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0425200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3365600000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.533899999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.020699999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.801299999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147.15299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A96D-4F40-B51B-4E7D1CF67333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6'!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6'!$E$16:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27648899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50300500000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0810500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1561599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8491700000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.375299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.0182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.475499999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175.40600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A96D-4F40-B51B-4E7D1CF67333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="625800416"/>
+        <c:axId val="625800896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="625800416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625800896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="625800896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625800416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'8'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8'!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.333648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77481299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4919799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.981100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.7196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139.08199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6829-40C2-A4CC-703DC871D868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8'!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>posix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'8'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8'!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13383800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31073499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.653586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.22679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6327199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3649500000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.275300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.5214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6829-40C2-A4CC-703DC871D868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8'!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>omp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'8'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8'!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.18948300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.354765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56638299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1656899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.24092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0702199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.7171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.087599999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.0304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134.66499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6829-40C2-A4CC-703DC871D868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8'!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'8'!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8'!$E$16:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.23060900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40346100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80803199999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.56603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6441300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8844099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.9481</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.036099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.843100000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162.11199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6829-40C2-A4CC-703DC871D868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1264673423"/>
+        <c:axId val="1264677743"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1264673423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1264677743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1264677743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1264673423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 th</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.203962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39724199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81787799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6710100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4822199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7426599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.581900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.746700000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195.47200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3921-4466-9D82-7BAD0B69518E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4 th</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.197405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37165199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76242500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.86988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2449300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7799699999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.049099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.117199999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.936700000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153.78899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3921-4466-9D82-7BAD0B69518E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>6 th</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22224099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38862799999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80991400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6478600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9149799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9365300000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.8932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.850700000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.0672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>151.16900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3921-4466-9D82-7BAD0B69518E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 th</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.333648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77481299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4919799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.981100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.7196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139.08199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3921-4466-9D82-7BAD0B69518E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1888715743"/>
+        <c:axId val="1888714303"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1888715743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888714303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1888714303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888715743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -860,6 +3663,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1376,27 +4339,2255 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399317</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>145072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6">
+        <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E528A6-13C9-32D0-C6A2-EEB06EC5D3F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3E8E9F-D0B8-1CAF-FC8B-83ED947EECD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348028</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>137746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>300403</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D6ED07-F029-16DD-AEDE-5B14F0A8C2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120893</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1044E3-A05D-9E05-8574-70CBDF83F31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>260105</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>174381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7095E34-ED19-DDFC-F241-9A2246A7307E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FA6737-BA15-9599-DB13-1B696BC524D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,371 +6871,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="22"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="6">
+      <c r="B3" s="10"/>
+      <c r="C3" s="8">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
-        <v>0.19580500000000001</v>
-      </c>
-      <c r="F3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="2">
+        <v>0.203962</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.17810699999999999</v>
+      </c>
       <c r="G3" s="6">
-        <v>0.207431</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6">
-        <v>0.24603</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6">
-        <v>1.25651</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6">
-        <v>1.18608</v>
-      </c>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.24826500000000001</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1.2172099999999999</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="19">
+        <v>1.2984599999999999</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11">
+        <v>1.39391</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="24"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6">
+      <c r="B4" s="10"/>
+      <c r="C4" s="8">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>0.40595900000000001</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="2">
+        <v>0.39724199999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.38877200000000001</v>
+      </c>
       <c r="G4" s="6">
-        <v>0.390878</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6">
-        <v>0.495888</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6">
-        <v>1.2215199999999999</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6">
-        <v>1.2686500000000001</v>
-      </c>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+        <v>0.38170399999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.50024999999999997</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.2593099999999999</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="19">
+        <v>1.31057</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="11">
+        <v>1.28674</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="6">
-        <v>0.78078099999999995</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2">
+        <v>0.81787799999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.78982200000000002</v>
+      </c>
       <c r="G5" s="6">
-        <v>0.73625200000000002</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6">
-        <v>1.0027699999999999</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6">
-        <v>1.2843199999999999</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+        <v>0.741676</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.97616800000000004</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1.19354</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="19">
+        <v>1.31616</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11">
+        <v>1.23593</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6">
-        <v>1.5664499999999999</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2">
+        <v>1.6710100000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.6617500000000001</v>
+      </c>
       <c r="G6" s="6">
-        <v>1.52555</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6">
-        <v>2.0999099999999999</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6">
-        <v>1.34056</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6">
-        <v>1.37649</v>
-      </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+        <v>1.5255300000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.0343900000000001</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1.21746</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="19">
+        <v>1.3335600000000001</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11">
+        <v>1.22424</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6">
-        <v>3.3698700000000001</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2">
+        <v>3.4822199999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.1505700000000001</v>
+      </c>
       <c r="G7" s="6">
-        <v>3.4483100000000002</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6">
-        <v>6.3784999999999998</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6">
-        <v>1.8928</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6">
-        <v>1.84975</v>
-      </c>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+        <v>3.0367099999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.3682800000000004</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1.2544500000000001</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="19">
+        <v>1.43849</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="11">
+        <v>1.3865000000000001</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6">
-        <v>8.1083499999999997</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2">
+        <v>6.7426599999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.5107900000000001</v>
+      </c>
       <c r="G8" s="6">
-        <v>6.5314199999999998</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
-        <v>8.9681700000000006</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6">
-        <v>1.1060399999999999</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6">
-        <v>1.3730800000000001</v>
-      </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+        <v>6.5661699999999996</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8.7961500000000008</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.3045500000000001</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="19">
+        <v>1.33962</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="11">
+        <v>1.35101</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6">
-        <v>14.821</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2">
+        <v>14.0753</v>
+      </c>
+      <c r="F9" s="2">
+        <v>14.3178</v>
+      </c>
       <c r="G9" s="6">
-        <v>13.5297</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
-        <v>17.645</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6">
-        <v>1.1905399999999999</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6">
-        <v>1.3041700000000001</v>
-      </c>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+        <v>13.964399999999999</v>
+      </c>
+      <c r="H9" s="2">
+        <v>18.4499</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.3108</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="19">
+        <v>1.32121</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="11">
+        <v>1.2886</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6">
-        <v>37.214500000000001</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2">
+        <v>30.581900000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>28.967700000000001</v>
+      </c>
       <c r="G10" s="6">
-        <v>36.002000000000002</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6">
-        <v>47.567</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6">
-        <v>1.2782</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6">
-        <v>1.3211999999999999</v>
-      </c>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+        <v>28.882000000000001</v>
+      </c>
+      <c r="H10" s="2">
+        <v>38.594499999999996</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1.262</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="19">
+        <v>1.3362799999999999</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="11">
+        <v>1.33233</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6">
-        <v>63.6678</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2">
+        <v>87.746700000000004</v>
+      </c>
+      <c r="F11" s="2">
+        <v>87.471299999999999</v>
+      </c>
       <c r="G11" s="6">
-        <v>56.534399999999998</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
-        <v>74.864999999999995</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6">
-        <v>1.17587</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6">
-        <v>1.3242400000000001</v>
-      </c>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+        <v>86.482500000000002</v>
+      </c>
+      <c r="H11" s="2">
+        <v>109.889</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1.2523500000000001</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="19">
+        <v>1.2706500000000001</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11">
+        <v>1.2562899999999999</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="6">
-        <v>155.482</v>
-      </c>
-      <c r="F12" s="6"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2">
+        <v>195.47200000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>192.87299999999999</v>
+      </c>
       <c r="G12" s="6">
-        <v>140.49299999999999</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
-        <v>172.411</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6">
-        <v>1.1088800000000001</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6">
-        <v>1.2271799999999999</v>
-      </c>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>197.40899999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>238.31299999999999</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1.2191700000000001</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="19">
+        <v>1.2072099999999999</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="11">
+        <v>1.2356</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -2053,43 +7353,52 @@
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>2^16</f>
         <v>65536</v>
       </c>
       <c r="B16" s="2">
-        <v>0.19580500000000001</v>
+        <v>0.203962</v>
       </c>
       <c r="C16" s="2">
-        <v>0.207431</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.24603</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>0.17810699999999999</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.24826500000000001</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2097,15 +7406,17 @@
         <v>131072</v>
       </c>
       <c r="B17" s="2">
-        <v>0.40595900000000001</v>
+        <v>0.39724199999999998</v>
       </c>
       <c r="C17" s="2">
-        <v>0.390878</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.495888</v>
-      </c>
-      <c r="E17" s="5"/>
+        <v>0.38877200000000001</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.38170399999999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.50024999999999997</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2116,15 +7427,17 @@
         <v>262144</v>
       </c>
       <c r="B18" s="2">
-        <v>0.78078099999999995</v>
+        <v>0.81787799999999999</v>
       </c>
       <c r="C18" s="2">
-        <v>0.73625200000000002</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.0027699999999999</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>0.78982200000000002</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.741676</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.97616800000000004</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2135,15 +7448,17 @@
         <v>524288</v>
       </c>
       <c r="B19" s="2">
-        <v>1.5664499999999999</v>
+        <v>1.6710100000000001</v>
       </c>
       <c r="C19" s="2">
-        <v>1.52555</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2.0999099999999999</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>1.6617500000000001</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1.5255300000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.0343900000000001</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2154,15 +7469,17 @@
         <v>1048576</v>
       </c>
       <c r="B20" s="2">
-        <v>3.3698700000000001</v>
+        <v>3.4822199999999999</v>
       </c>
       <c r="C20" s="2">
-        <v>3.4483100000000002</v>
-      </c>
-      <c r="D20" s="2">
-        <v>6.3784999999999998</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>3.1505700000000001</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3.0367099999999998</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.3682800000000004</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2173,15 +7490,17 @@
         <v>2097152</v>
       </c>
       <c r="B21" s="2">
-        <v>8.1083499999999997</v>
+        <v>6.7426599999999999</v>
       </c>
       <c r="C21" s="2">
-        <v>6.5314199999999998</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8.9681700000000006</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>6.5107900000000001</v>
+      </c>
+      <c r="D21" s="6">
+        <v>6.5661699999999996</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8.7961500000000008</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2192,15 +7511,17 @@
         <v>4194304</v>
       </c>
       <c r="B22" s="2">
-        <v>14.821</v>
+        <v>14.0753</v>
       </c>
       <c r="C22" s="2">
-        <v>13.5297</v>
-      </c>
-      <c r="D22" s="2">
-        <v>17.645</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>14.3178</v>
+      </c>
+      <c r="D22" s="6">
+        <v>13.964399999999999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>18.4499</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2211,15 +7532,17 @@
         <v>8388608</v>
       </c>
       <c r="B23" s="2">
-        <v>37.214500000000001</v>
+        <v>30.581900000000001</v>
       </c>
       <c r="C23" s="2">
-        <v>36.002000000000002</v>
-      </c>
-      <c r="D23" s="2">
-        <v>47.567</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>28.967700000000001</v>
+      </c>
+      <c r="D23" s="6">
+        <v>28.882000000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>38.594499999999996</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2230,15 +7553,17 @@
         <v>16777216</v>
       </c>
       <c r="B24" s="2">
-        <v>63.6678</v>
+        <v>87.746700000000004</v>
       </c>
       <c r="C24" s="2">
-        <v>56.534399999999998</v>
-      </c>
-      <c r="D24" s="2">
-        <v>74.864999999999995</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>87.471299999999999</v>
+      </c>
+      <c r="D24" s="6">
+        <v>86.482500000000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>109.889</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2249,28 +7574,33 @@
         <v>33554432</v>
       </c>
       <c r="B25" s="2">
-        <v>155.482</v>
+        <v>195.47200000000001</v>
       </c>
       <c r="C25" s="2">
-        <v>140.49299999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>172.411</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>192.87299999999999</v>
+      </c>
+      <c r="D25" s="6">
+        <v>197.40899999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>238.31299999999999</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="59">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:F2"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="M1:N2"/>
     <mergeCell ref="A7:B7"/>
@@ -2284,35 +7614,14 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="I7:J7"/>
@@ -2345,4 +7654,2245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4111DBF-3920-428F-AB40-6111CFE5D528}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="2">
+        <v>0.197405</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.166486</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.228575</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.26203900000000002</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1.32742</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="19">
+        <v>1.1464099999999999</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11">
+        <v>1.5739399999999999</v>
+      </c>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="2">
+        <v>0.37165199999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.36700100000000002</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.37588700000000003</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.48961900000000003</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.31741</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="19">
+        <v>1.30257</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="11">
+        <v>1.3341099999999999</v>
+      </c>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2">
+        <v>0.76242500000000002</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.72821899999999995</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.73197299999999998</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.99923200000000001</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1.3106</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="19">
+        <v>1.3651199999999999</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11">
+        <v>1.37216</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2">
+        <v>1.86988</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.4688600000000001</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.4668000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.0839599999999998</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1.11449</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="19">
+        <v>1.42075</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11">
+        <v>1.41876</v>
+      </c>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2">
+        <v>3.2449300000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.0659299999999998</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3.0430899999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5.6830499999999997</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1.75136</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="19">
+        <v>1.8675299999999999</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="11">
+        <v>1.85361</v>
+      </c>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2">
+        <v>6.7799699999999996</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.2731899999999996</v>
+      </c>
+      <c r="G8" s="6">
+        <v>6.5192199999999998</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8.6430100000000003</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.2747900000000001</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="19">
+        <v>1.3257699999999999</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="11">
+        <v>1.3777699999999999</v>
+      </c>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2">
+        <v>14.049099999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>14.469900000000001</v>
+      </c>
+      <c r="G9" s="6">
+        <v>13.94</v>
+      </c>
+      <c r="H9" s="2">
+        <v>18.834700000000002</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.34063</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="19">
+        <v>1.3511299999999999</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="11">
+        <v>1.3016399999999999</v>
+      </c>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2">
+        <v>40.117199999999997</v>
+      </c>
+      <c r="F10" s="2">
+        <v>39.556899999999999</v>
+      </c>
+      <c r="G10" s="6">
+        <v>38.677999999999997</v>
+      </c>
+      <c r="H10" s="2">
+        <v>51.6449</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1.28735</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="19">
+        <v>1.33525</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="11">
+        <v>1.30559</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2">
+        <v>67.936700000000002</v>
+      </c>
+      <c r="F11" s="2">
+        <v>61.850700000000003</v>
+      </c>
+      <c r="G11" s="6">
+        <v>59.966000000000001</v>
+      </c>
+      <c r="H11" s="2">
+        <v>78.563599999999994</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1.15642</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="19">
+        <v>1.3101400000000001</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11">
+        <v>1.2702100000000001</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2">
+        <v>153.78899999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>145.99700000000001</v>
+      </c>
+      <c r="G12" s="6">
+        <v>139.75299999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>175.40600000000001</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1.14056</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="19">
+        <v>1.2551099999999999</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="11">
+        <v>1.2014400000000001</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.197405</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.166486</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.228575</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.26203900000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.37165199999999998</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.36700100000000002</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.37588700000000003</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.48961900000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.76242500000000002</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.72821899999999995</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.73197299999999998</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.99923200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.86988</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.4688600000000001</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1.4668000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.0839599999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.2449300000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3.0659299999999998</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3.0430899999999999</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5.6830499999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6.7799699999999996</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6.2731899999999996</v>
+      </c>
+      <c r="D21" s="6">
+        <v>6.5192199999999998</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8.6430100000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14.049099999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>14.469900000000001</v>
+      </c>
+      <c r="D22" s="6">
+        <v>13.94</v>
+      </c>
+      <c r="E22" s="2">
+        <v>18.834700000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="B23" s="2">
+        <v>40.117199999999997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>39.556899999999999</v>
+      </c>
+      <c r="D23" s="6">
+        <v>38.677999999999997</v>
+      </c>
+      <c r="E23" s="2">
+        <v>51.6449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="B24" s="2">
+        <v>67.936700000000002</v>
+      </c>
+      <c r="C24" s="2">
+        <v>61.850700000000003</v>
+      </c>
+      <c r="D24" s="6">
+        <v>59.966000000000001</v>
+      </c>
+      <c r="E24" s="2">
+        <v>78.563599999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="B25" s="2">
+        <v>153.78899999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>145.99700000000001</v>
+      </c>
+      <c r="D25" s="6">
+        <v>139.75299999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>175.40600000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F897FDB2-5288-4B17-A4E1-7133E13140E2}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="2">
+        <v>0.22224099999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.174152</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.24824499999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.27648899999999998</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1.2440899999999999</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="19">
+        <v>1.1137699999999999</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11">
+        <v>1.5876300000000001</v>
+      </c>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="2">
+        <v>0.38862799999999997</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.38606800000000002</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.40198499999999998</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.50300500000000004</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.2943100000000001</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="19">
+        <v>1.2513000000000001</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="11">
+        <v>1.3028900000000001</v>
+      </c>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2">
+        <v>0.80991400000000002</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.73936500000000005</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.72420099999999998</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.0810500000000001</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1.33477</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="19">
+        <v>1.49274</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11">
+        <v>1.4621299999999999</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2">
+        <v>1.6478600000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.6529499999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.5342199999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.09056</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1.2686500000000001</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="19">
+        <v>1.3626199999999999</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11">
+        <v>1.26474</v>
+      </c>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2">
+        <v>3.9149799999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.0615899999999998</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3.0425200000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.1561599999999999</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1.0616000000000001</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="19">
+        <v>1.3660300000000001</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="11">
+        <v>1.3575200000000001</v>
+      </c>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2">
+        <v>6.9365300000000003</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.9301700000000004</v>
+      </c>
+      <c r="G8" s="6">
+        <v>6.3365600000000004</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8.8491700000000009</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.27573</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="19">
+        <v>1.39653</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="11">
+        <v>1.2768999999999999</v>
+      </c>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2">
+        <v>14.8932</v>
+      </c>
+      <c r="F9" s="2">
+        <v>13.7646</v>
+      </c>
+      <c r="G9" s="6">
+        <v>13.533899999999999</v>
+      </c>
+      <c r="H9" s="2">
+        <v>18.375299999999999</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.2338100000000001</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="19">
+        <v>1.35772</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="11">
+        <v>1.33497</v>
+      </c>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2">
+        <v>41.850700000000003</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40.648600000000002</v>
+      </c>
+      <c r="G10" s="6">
+        <v>40.020699999999998</v>
+      </c>
+      <c r="H10" s="2">
+        <v>51.0182</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1.21905</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="19">
+        <v>1.2747999999999999</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="11">
+        <v>1.2551000000000001</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2">
+        <v>63.0672</v>
+      </c>
+      <c r="F11" s="2">
+        <v>62.861699999999999</v>
+      </c>
+      <c r="G11" s="6">
+        <v>60.801299999999998</v>
+      </c>
+      <c r="H11" s="2">
+        <v>80.475499999999997</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1.2760199999999999</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="19">
+        <v>1.32358</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11">
+        <v>1.2802</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2">
+        <v>151.16900000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>148.917</v>
+      </c>
+      <c r="G12" s="6">
+        <v>147.15299999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>175.40600000000001</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1.1603300000000001</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="19">
+        <v>1.1919900000000001</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="11">
+        <v>1.17787</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.22224099999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.174152</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.24824499999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.27648899999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.38862799999999997</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.38606800000000002</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.40198499999999998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.50300500000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.80991400000000002</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.73936500000000005</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.72420099999999998</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.0810500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.6478600000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.6529499999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1.5342199999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.09056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.9149799999999999</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3.0615899999999998</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3.0425200000000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.1561599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6.9365300000000003</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6.9301700000000004</v>
+      </c>
+      <c r="D21" s="6">
+        <v>6.3365600000000004</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8.8491700000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14.8932</v>
+      </c>
+      <c r="C22" s="2">
+        <v>13.7646</v>
+      </c>
+      <c r="D22" s="6">
+        <v>13.533899999999999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>18.375299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="B23" s="2">
+        <v>41.850700000000003</v>
+      </c>
+      <c r="C23" s="2">
+        <v>40.648600000000002</v>
+      </c>
+      <c r="D23" s="6">
+        <v>40.020699999999998</v>
+      </c>
+      <c r="E23" s="2">
+        <v>51.0182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="B24" s="2">
+        <v>63.0672</v>
+      </c>
+      <c r="C24" s="2">
+        <v>62.861699999999999</v>
+      </c>
+      <c r="D24" s="6">
+        <v>60.801299999999998</v>
+      </c>
+      <c r="E24" s="2">
+        <v>80.475499999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="B25" s="2">
+        <v>151.16900000000001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>148.917</v>
+      </c>
+      <c r="D25" s="6">
+        <v>147.15299999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>175.40600000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FEBA86-E8B5-4DC3-8F91-74EEB087AEFA}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="2">
+        <v>0.17438600000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.13383800000000001</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.18948300000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.23060900000000001</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1.3224100000000001</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="19">
+        <v>1.2170399999999999</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11">
+        <v>1.7230399999999999</v>
+      </c>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="2">
+        <v>0.333648</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.31073499999999998</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.354765</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.40346100000000001</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.2092400000000001</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="19">
+        <v>1.1372599999999999</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="11">
+        <v>1.2984100000000001</v>
+      </c>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2">
+        <v>0.77481299999999997</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.653586</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.56638299999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.80803199999999997</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1.04287</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="19">
+        <v>1.42665</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11">
+        <v>1.2363</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2">
+        <v>1.23621</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.22679</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.1656899999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.56603</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1.2667999999999999</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="19">
+        <v>1.34344</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11">
+        <v>1.2765200000000001</v>
+      </c>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2">
+        <v>2.4919799999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.6327199999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.24092</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.6441300000000001</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1.46234</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="19">
+        <v>1.6261699999999999</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="11">
+        <v>1.3841699999999999</v>
+      </c>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2">
+        <v>5.383</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.3649500000000003</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5.0702199999999999</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6.8844099999999999</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.2789200000000001</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="19">
+        <v>1.35781</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="11">
+        <v>1.28322</v>
+      </c>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2">
+        <v>14.951000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>13.696</v>
+      </c>
+      <c r="G9" s="6">
+        <v>12.7171</v>
+      </c>
+      <c r="H9" s="2">
+        <v>16.9481</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.13358</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="19">
+        <v>1.3327</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="11">
+        <v>1.2374499999999999</v>
+      </c>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2">
+        <v>30.981100000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>30.275300000000001</v>
+      </c>
+      <c r="G10" s="6">
+        <v>29.087599999999998</v>
+      </c>
+      <c r="H10" s="2">
+        <v>35.036099999999998</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1.1308860000000001</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="19">
+        <v>1.2044999999999999</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="11">
+        <v>1.1572499999999999</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2">
+        <v>59.7196</v>
+      </c>
+      <c r="F11" s="2">
+        <v>59.5214</v>
+      </c>
+      <c r="G11" s="6">
+        <v>57.0304</v>
+      </c>
+      <c r="H11" s="2">
+        <v>71.843100000000007</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1.2030099999999999</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="19">
+        <v>1.25973</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11">
+        <v>1.2070099999999999</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2">
+        <v>139.08199999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>136.571</v>
+      </c>
+      <c r="G12" s="6">
+        <v>134.66499999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>162.11199999999999</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1.1655800000000001</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="19">
+        <v>1.2038199999999999</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="11">
+        <v>1.1870099999999999</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.17438600000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.13383800000000001</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.18948300000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.23060900000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.333648</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.31073499999999998</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.354765</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.40346100000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.77481299999999997</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.653586</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.56638299999999997</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.80803199999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.23621</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.22679</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1.1656899999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.56603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.4919799999999999</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.6327199999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2.24092</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3.6441300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5.383</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5.3649500000000003</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5.0702199999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6.8844099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14.951000000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>13.696</v>
+      </c>
+      <c r="D22" s="6">
+        <v>12.7171</v>
+      </c>
+      <c r="E22" s="2">
+        <v>16.9481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="B23" s="2">
+        <v>30.981100000000001</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30.275300000000001</v>
+      </c>
+      <c r="D23" s="6">
+        <v>29.087599999999998</v>
+      </c>
+      <c r="E23" s="2">
+        <v>35.036099999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="B24" s="2">
+        <v>59.7196</v>
+      </c>
+      <c r="C24" s="2">
+        <v>59.5214</v>
+      </c>
+      <c r="D24" s="6">
+        <v>57.0304</v>
+      </c>
+      <c r="E24" s="2">
+        <v>71.843100000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="B25" s="2">
+        <v>139.08199999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>136.571</v>
+      </c>
+      <c r="D25" s="6">
+        <v>134.66499999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>162.11199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1063F5B5-CE0E-4740-ACB8-118ADF24D602}">
+  <dimension ref="A4:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.203962</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.197405</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.22224099999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.17438600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.39724199999999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.37165199999999998</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.38862799999999997</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.333648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.81787799999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.76242500000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.80991400000000002</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.77481299999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.6710100000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.86988</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.6478600000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.23621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.4822199999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.2449300000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.9149799999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4919799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6.7426599999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.7799699999999996</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.9365300000000003</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="B11" s="2">
+        <v>14.0753</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14.049099999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>14.8932</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14.951000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="B12" s="2">
+        <v>30.581900000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40.117199999999997</v>
+      </c>
+      <c r="D12" s="2">
+        <v>41.850700000000003</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30.981100000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="B13" s="2">
+        <v>87.746700000000004</v>
+      </c>
+      <c r="C13" s="2">
+        <v>67.936700000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <v>63.0672</v>
+      </c>
+      <c r="E13" s="2">
+        <v>59.7196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="B14" s="2">
+        <v>195.47200000000001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>153.78899999999999</v>
+      </c>
+      <c r="D14" s="2">
+        <v>151.16900000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>139.08199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Parallel_Prog/laba3/tests.xlsx
+++ b/Parallel_Prog/laba3/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbikm\OneDrive\Рабочий стол\study\3_2 курс\Parallel_Prog\laba3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C1D644-69D5-4253-A9AF-32EDAF2F9FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A57BDCC-7496-43D7-97C5-EFBDEF76F720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,21 +261,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -294,6 +279,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,12 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -719,7 +714,7 @@
             <c:numRef>
               <c:f>'2'!$E$16:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.24826500000000001</c:v>
@@ -2526,34 +2521,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.13383800000000001</c:v>
+                  <c:v>0.18948300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31073499999999998</c:v>
+                  <c:v>0.354765</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.653586</c:v>
+                  <c:v>0.56638299999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.22679</c:v>
+                  <c:v>1.1656899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6327199999999999</c:v>
+                  <c:v>2.24092</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3649500000000003</c:v>
+                  <c:v>5.0702199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.696</c:v>
+                  <c:v>12.7171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.275300000000001</c:v>
+                  <c:v>29.087599999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.5214</c:v>
+                  <c:v>57.0304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>136.571</c:v>
+                  <c:v>134.66499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2637,34 +2632,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.18948300000000001</c:v>
+                  <c:v>0.13383800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.354765</c:v>
+                  <c:v>0.31073499999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56638299999999997</c:v>
+                  <c:v>0.653586</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1656899999999999</c:v>
+                  <c:v>1.22679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.24092</c:v>
+                  <c:v>2.6327199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0702199999999999</c:v>
+                  <c:v>5.3649500000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.7171</c:v>
+                  <c:v>13.696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.087599999999998</c:v>
+                  <c:v>30.275300000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.0304</c:v>
+                  <c:v>59.5214</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>134.66499999999999</c:v>
+                  <c:v>136.571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6880,75 +6875,75 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="22"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="22"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="4"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="8">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2">
         <v>0.203962</v>
       </c>
@@ -6961,35 +6956,35 @@
       <c r="H3" s="2">
         <v>0.24826500000000001</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="17">
         <v>1.2172099999999999</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="19">
         <v>1.2984599999999999</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="11">
+      <c r="L3" s="18"/>
+      <c r="M3" s="17">
         <v>1.39391</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="24"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="5"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="8">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2">
         <v>0.39724199999999998</v>
       </c>
@@ -7002,34 +6997,34 @@
       <c r="H4" s="2">
         <v>0.50024999999999997</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="17">
         <v>1.2593099999999999</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="19">
         <v>1.31057</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11">
+      <c r="L4" s="18"/>
+      <c r="M4" s="17">
         <v>1.28674</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11">
+      <c r="B5" s="15"/>
+      <c r="C5" s="17">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2">
         <v>0.81787799999999999</v>
       </c>
@@ -7042,34 +7037,34 @@
       <c r="H5" s="2">
         <v>0.97616800000000004</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="17">
         <v>1.19354</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="19">
         <v>1.31616</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11">
+      <c r="L5" s="18"/>
+      <c r="M5" s="17">
         <v>1.23593</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11">
+      <c r="B6" s="15"/>
+      <c r="C6" s="17">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2">
         <v>1.6710100000000001</v>
       </c>
@@ -7082,34 +7077,34 @@
       <c r="H6" s="2">
         <v>2.0343900000000001</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="17">
         <v>1.21746</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="19">
         <v>1.3335600000000001</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11">
+      <c r="L6" s="18"/>
+      <c r="M6" s="17">
         <v>1.22424</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
+      <c r="B7" s="15"/>
+      <c r="C7" s="17">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2">
         <v>3.4822199999999999</v>
       </c>
@@ -7122,34 +7117,34 @@
       <c r="H7" s="2">
         <v>4.3682800000000004</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="17">
         <v>1.2544500000000001</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="19">
         <v>1.43849</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11">
+      <c r="L7" s="18"/>
+      <c r="M7" s="17">
         <v>1.3865000000000001</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
+      <c r="B8" s="15"/>
+      <c r="C8" s="17">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2">
         <v>6.7426599999999999</v>
       </c>
@@ -7162,34 +7157,34 @@
       <c r="H8" s="2">
         <v>8.7961500000000008</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="17">
         <v>1.3045500000000001</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="19">
         <v>1.33962</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="11">
+      <c r="L8" s="18"/>
+      <c r="M8" s="17">
         <v>1.35101</v>
       </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
+      <c r="B9" s="15"/>
+      <c r="C9" s="17">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2">
         <v>14.0753</v>
       </c>
@@ -7202,34 +7197,34 @@
       <c r="H9" s="2">
         <v>18.4499</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="17">
         <v>1.3108</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="19">
         <v>1.32121</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11">
+      <c r="L9" s="18"/>
+      <c r="M9" s="17">
         <v>1.2886</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
+      <c r="B10" s="15"/>
+      <c r="C10" s="17">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2">
         <v>30.581900000000001</v>
       </c>
@@ -7242,34 +7237,34 @@
       <c r="H10" s="2">
         <v>38.594499999999996</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="17">
         <v>1.262</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="19">
         <v>1.3362799999999999</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="11">
+      <c r="L10" s="18"/>
+      <c r="M10" s="17">
         <v>1.33233</v>
       </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
+      <c r="B11" s="15"/>
+      <c r="C11" s="17">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2">
         <v>87.746700000000004</v>
       </c>
@@ -7282,34 +7277,34 @@
       <c r="H11" s="2">
         <v>109.889</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="17">
         <v>1.2523500000000001</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="19">
         <v>1.2706500000000001</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11">
+      <c r="L11" s="18"/>
+      <c r="M11" s="17">
         <v>1.2562899999999999</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
+      <c r="B12" s="15"/>
+      <c r="C12" s="17">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2">
         <v>195.47200000000001</v>
       </c>
@@ -7322,23 +7317,23 @@
       <c r="H12" s="2">
         <v>238.31299999999999</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="17">
         <v>1.2191700000000001</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="19">
         <v>1.2072099999999999</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11">
+      <c r="L12" s="18"/>
+      <c r="M12" s="17">
         <v>1.2356</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R13" s="5"/>
@@ -7591,16 +7586,34 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="M1:N2"/>
     <mergeCell ref="A7:B7"/>
@@ -7614,42 +7627,24 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C1:D2"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7670,65 +7665,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="8">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2">
         <v>0.197405</v>
       </c>
@@ -7741,29 +7736,29 @@
       <c r="H3" s="2">
         <v>0.26203900000000002</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="17">
         <v>1.32742</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="19">
         <v>1.1464099999999999</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="11">
+      <c r="L3" s="18"/>
+      <c r="M3" s="17">
         <v>1.5739399999999999</v>
       </c>
-      <c r="N3" s="12"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="8">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2">
         <v>0.37165199999999998</v>
       </c>
@@ -7776,29 +7771,29 @@
       <c r="H4" s="2">
         <v>0.48961900000000003</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="17">
         <v>1.31741</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="19">
         <v>1.30257</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11">
+      <c r="L4" s="18"/>
+      <c r="M4" s="17">
         <v>1.3341099999999999</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11">
+      <c r="B5" s="15"/>
+      <c r="C5" s="17">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2">
         <v>0.76242500000000002</v>
       </c>
@@ -7811,29 +7806,29 @@
       <c r="H5" s="2">
         <v>0.99923200000000001</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="17">
         <v>1.3106</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="19">
         <v>1.3651199999999999</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11">
+      <c r="L5" s="18"/>
+      <c r="M5" s="17">
         <v>1.37216</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11">
+      <c r="B6" s="15"/>
+      <c r="C6" s="17">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2">
         <v>1.86988</v>
       </c>
@@ -7846,29 +7841,29 @@
       <c r="H6" s="2">
         <v>2.0839599999999998</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="17">
         <v>1.11449</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="19">
         <v>1.42075</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11">
+      <c r="L6" s="18"/>
+      <c r="M6" s="17">
         <v>1.41876</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
+      <c r="B7" s="15"/>
+      <c r="C7" s="17">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2">
         <v>3.2449300000000001</v>
       </c>
@@ -7881,29 +7876,29 @@
       <c r="H7" s="2">
         <v>5.6830499999999997</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="17">
         <v>1.75136</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="19">
         <v>1.8675299999999999</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11">
+      <c r="L7" s="18"/>
+      <c r="M7" s="17">
         <v>1.85361</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
+      <c r="B8" s="15"/>
+      <c r="C8" s="17">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2">
         <v>6.7799699999999996</v>
       </c>
@@ -7916,29 +7911,29 @@
       <c r="H8" s="2">
         <v>8.6430100000000003</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="17">
         <v>1.2747900000000001</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="19">
         <v>1.3257699999999999</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="11">
+      <c r="L8" s="18"/>
+      <c r="M8" s="17">
         <v>1.3777699999999999</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
+      <c r="B9" s="15"/>
+      <c r="C9" s="17">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2">
         <v>14.049099999999999</v>
       </c>
@@ -7951,29 +7946,29 @@
       <c r="H9" s="2">
         <v>18.834700000000002</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="17">
         <v>1.34063</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="19">
         <v>1.3511299999999999</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11">
+      <c r="L9" s="18"/>
+      <c r="M9" s="17">
         <v>1.3016399999999999</v>
       </c>
-      <c r="N9" s="12"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
+      <c r="B10" s="15"/>
+      <c r="C10" s="17">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2">
         <v>40.117199999999997</v>
       </c>
@@ -7986,29 +7981,29 @@
       <c r="H10" s="2">
         <v>51.6449</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="17">
         <v>1.28735</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="19">
         <v>1.33525</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="11">
+      <c r="L10" s="18"/>
+      <c r="M10" s="17">
         <v>1.30559</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
+      <c r="B11" s="15"/>
+      <c r="C11" s="17">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2">
         <v>67.936700000000002</v>
       </c>
@@ -8021,29 +8016,29 @@
       <c r="H11" s="2">
         <v>78.563599999999994</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="17">
         <v>1.15642</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="19">
         <v>1.3101400000000001</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11">
+      <c r="L11" s="18"/>
+      <c r="M11" s="17">
         <v>1.2702100000000001</v>
       </c>
-      <c r="N11" s="12"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
+      <c r="B12" s="15"/>
+      <c r="C12" s="17">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2">
         <v>153.78899999999999</v>
       </c>
@@ -8056,18 +8051,18 @@
       <c r="H12" s="2">
         <v>175.40600000000001</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="17">
         <v>1.14056</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="19">
         <v>1.2551099999999999</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11">
+      <c r="L12" s="18"/>
+      <c r="M12" s="17">
         <v>1.2014400000000001</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -8268,51 +8263,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="M1:N2"/>
@@ -8327,6 +8277,51 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8344,65 +8339,65 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="8">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2">
         <v>0.22224099999999999</v>
       </c>
@@ -8415,29 +8410,29 @@
       <c r="H3" s="2">
         <v>0.27648899999999998</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="17">
         <v>1.2440899999999999</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="19">
         <v>1.1137699999999999</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="11">
+      <c r="L3" s="18"/>
+      <c r="M3" s="17">
         <v>1.5876300000000001</v>
       </c>
-      <c r="N3" s="12"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="8">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2">
         <v>0.38862799999999997</v>
       </c>
@@ -8450,29 +8445,29 @@
       <c r="H4" s="2">
         <v>0.50300500000000004</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="17">
         <v>1.2943100000000001</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="19">
         <v>1.2513000000000001</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11">
+      <c r="L4" s="18"/>
+      <c r="M4" s="17">
         <v>1.3028900000000001</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11">
+      <c r="B5" s="15"/>
+      <c r="C5" s="17">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2">
         <v>0.80991400000000002</v>
       </c>
@@ -8485,29 +8480,29 @@
       <c r="H5" s="2">
         <v>1.0810500000000001</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="17">
         <v>1.33477</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="19">
         <v>1.49274</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11">
+      <c r="L5" s="18"/>
+      <c r="M5" s="17">
         <v>1.4621299999999999</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11">
+      <c r="B6" s="15"/>
+      <c r="C6" s="17">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2">
         <v>1.6478600000000001</v>
       </c>
@@ -8520,29 +8515,29 @@
       <c r="H6" s="2">
         <v>2.09056</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="17">
         <v>1.2686500000000001</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="19">
         <v>1.3626199999999999</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11">
+      <c r="L6" s="18"/>
+      <c r="M6" s="17">
         <v>1.26474</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
+      <c r="B7" s="15"/>
+      <c r="C7" s="17">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2">
         <v>3.9149799999999999</v>
       </c>
@@ -8555,29 +8550,29 @@
       <c r="H7" s="2">
         <v>4.1561599999999999</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="17">
         <v>1.0616000000000001</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="19">
         <v>1.3660300000000001</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11">
+      <c r="L7" s="18"/>
+      <c r="M7" s="17">
         <v>1.3575200000000001</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
+      <c r="B8" s="15"/>
+      <c r="C8" s="17">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2">
         <v>6.9365300000000003</v>
       </c>
@@ -8590,29 +8585,29 @@
       <c r="H8" s="2">
         <v>8.8491700000000009</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="17">
         <v>1.27573</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="19">
         <v>1.39653</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="11">
+      <c r="L8" s="18"/>
+      <c r="M8" s="17">
         <v>1.2768999999999999</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
+      <c r="B9" s="15"/>
+      <c r="C9" s="17">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2">
         <v>14.8932</v>
       </c>
@@ -8625,29 +8620,29 @@
       <c r="H9" s="2">
         <v>18.375299999999999</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="17">
         <v>1.2338100000000001</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="19">
         <v>1.35772</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11">
+      <c r="L9" s="18"/>
+      <c r="M9" s="17">
         <v>1.33497</v>
       </c>
-      <c r="N9" s="12"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
+      <c r="B10" s="15"/>
+      <c r="C10" s="17">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2">
         <v>41.850700000000003</v>
       </c>
@@ -8660,29 +8655,29 @@
       <c r="H10" s="2">
         <v>51.0182</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="17">
         <v>1.21905</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="19">
         <v>1.2747999999999999</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="11">
+      <c r="L10" s="18"/>
+      <c r="M10" s="17">
         <v>1.2551000000000001</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
+      <c r="B11" s="15"/>
+      <c r="C11" s="17">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2">
         <v>63.0672</v>
       </c>
@@ -8695,29 +8690,29 @@
       <c r="H11" s="2">
         <v>80.475499999999997</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="17">
         <v>1.2760199999999999</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="19">
         <v>1.32358</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11">
+      <c r="L11" s="18"/>
+      <c r="M11" s="17">
         <v>1.2802</v>
       </c>
-      <c r="N11" s="12"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
+      <c r="B12" s="15"/>
+      <c r="C12" s="17">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2">
         <v>151.16900000000001</v>
       </c>
@@ -8730,18 +8725,18 @@
       <c r="H12" s="2">
         <v>175.40600000000001</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="17">
         <v>1.1603300000000001</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="19">
         <v>1.1919900000000001</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11">
+      <c r="L12" s="18"/>
+      <c r="M12" s="17">
         <v>1.17787</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -8942,51 +8937,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="M1:N2"/>
@@ -9001,6 +8951,51 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9009,10 +9004,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FEBA86-E8B5-4DC3-8F91-74EEB087AEFA}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9020,407 +9015,489 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="8">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2">
         <v>0.17438600000000001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
+        <v>0.18948300000000001</v>
+      </c>
+      <c r="G3" s="2">
         <v>0.13383800000000001</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.18948300000000001</v>
       </c>
       <c r="H3" s="2">
         <v>0.23060900000000001</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="17">
         <v>1.3224100000000001</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="19">
+      <c r="J3" s="18"/>
+      <c r="K3" s="17">
+        <v>1.7230399999999999</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19">
         <v>1.2170399999999999</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="11">
-        <v>1.7230399999999999</v>
-      </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="N3" s="18"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="22"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="8">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2">
         <v>0.333648</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
+        <v>0.354765</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.31073499999999998</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.354765</v>
       </c>
       <c r="H4" s="2">
         <v>0.40346100000000001</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="17">
         <v>1.2092400000000001</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="19">
+      <c r="J4" s="18"/>
+      <c r="K4" s="17">
+        <v>1.2984100000000001</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19">
         <v>1.1372599999999999</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11">
-        <v>1.2984100000000001</v>
-      </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="N4" s="18"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11">
+      <c r="B5" s="15"/>
+      <c r="C5" s="17">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2">
         <v>0.77481299999999997</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
+        <v>0.56638299999999997</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.653586</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.56638299999999997</v>
       </c>
       <c r="H5" s="2">
         <v>0.80803199999999997</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="17">
         <v>1.04287</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="19">
+      <c r="J5" s="18"/>
+      <c r="K5" s="17">
+        <v>1.2363</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19">
         <v>1.42665</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11">
-        <v>1.2363</v>
-      </c>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="N5" s="18"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="22"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11">
+      <c r="B6" s="15"/>
+      <c r="C6" s="17">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2">
         <v>1.23621</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
+        <v>1.1656899999999999</v>
+      </c>
+      <c r="G6" s="2">
         <v>1.22679</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1.1656899999999999</v>
       </c>
       <c r="H6" s="2">
         <v>1.56603</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="17">
         <v>1.2667999999999999</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="19">
+      <c r="J6" s="18"/>
+      <c r="K6" s="17">
+        <v>1.2765200000000001</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19">
         <v>1.34344</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11">
-        <v>1.2765200000000001</v>
-      </c>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="N6" s="18"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="22"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
+      <c r="B7" s="15"/>
+      <c r="C7" s="17">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2">
         <v>2.4919799999999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
+        <v>2.24092</v>
+      </c>
+      <c r="G7" s="2">
         <v>2.6327199999999999</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2.24092</v>
       </c>
       <c r="H7" s="2">
         <v>3.6441300000000001</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="17">
         <v>1.46234</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="19">
+      <c r="J7" s="18"/>
+      <c r="K7" s="17">
+        <v>1.3841699999999999</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19">
         <v>1.6261699999999999</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11">
-        <v>1.3841699999999999</v>
-      </c>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="N7" s="18"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="22"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
+      <c r="B8" s="15"/>
+      <c r="C8" s="17">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2">
         <v>5.383</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="6">
+        <v>5.0702199999999999</v>
+      </c>
+      <c r="G8" s="2">
         <v>5.3649500000000003</v>
-      </c>
-      <c r="G8" s="6">
-        <v>5.0702199999999999</v>
       </c>
       <c r="H8" s="2">
         <v>6.8844099999999999</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="17">
         <v>1.2789200000000001</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="19">
+      <c r="J8" s="18"/>
+      <c r="K8" s="17">
+        <v>1.28322</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19">
         <v>1.35781</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="11">
-        <v>1.28322</v>
-      </c>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="N8" s="18"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="22"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
+      <c r="B9" s="15"/>
+      <c r="C9" s="17">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2">
         <v>14.951000000000001</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="6">
+        <v>12.7171</v>
+      </c>
+      <c r="G9" s="2">
         <v>13.696</v>
-      </c>
-      <c r="G9" s="6">
-        <v>12.7171</v>
       </c>
       <c r="H9" s="2">
         <v>16.9481</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="17">
         <v>1.13358</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="19">
+      <c r="J9" s="18"/>
+      <c r="K9" s="17">
+        <v>1.2374499999999999</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19">
         <v>1.3327</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11">
-        <v>1.2374499999999999</v>
-      </c>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="N9" s="18"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="22"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
+      <c r="B10" s="15"/>
+      <c r="C10" s="17">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2">
         <v>30.981100000000001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="6">
+        <v>29.087599999999998</v>
+      </c>
+      <c r="G10" s="2">
         <v>30.275300000000001</v>
-      </c>
-      <c r="G10" s="6">
-        <v>29.087599999999998</v>
       </c>
       <c r="H10" s="2">
         <v>35.036099999999998</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="17">
         <v>1.1308860000000001</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="19">
+      <c r="J10" s="18"/>
+      <c r="K10" s="17">
+        <v>1.1572499999999999</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19">
         <v>1.2044999999999999</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="11">
-        <v>1.1572499999999999</v>
-      </c>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="N10" s="18"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="22"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
+      <c r="B11" s="15"/>
+      <c r="C11" s="17">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2">
         <v>59.7196</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6">
+        <v>57.0304</v>
+      </c>
+      <c r="G11" s="2">
         <v>59.5214</v>
-      </c>
-      <c r="G11" s="6">
-        <v>57.0304</v>
       </c>
       <c r="H11" s="2">
         <v>71.843100000000007</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="17">
         <v>1.2030099999999999</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="19">
+      <c r="J11" s="18"/>
+      <c r="K11" s="17">
+        <v>1.2070099999999999</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19">
         <v>1.25973</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11">
-        <v>1.2070099999999999</v>
-      </c>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="N11" s="18"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="22"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
+      <c r="B12" s="15"/>
+      <c r="C12" s="17">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2">
         <v>139.08199999999999</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
+        <v>134.66499999999999</v>
+      </c>
+      <c r="G12" s="2">
         <v>136.571</v>
-      </c>
-      <c r="G12" s="6">
-        <v>134.66499999999999</v>
       </c>
       <c r="H12" s="2">
         <v>162.11199999999999</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="17">
         <v>1.1655800000000001</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="19">
+      <c r="J12" s="18"/>
+      <c r="K12" s="17">
+        <v>1.1870099999999999</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19">
         <v>1.2038199999999999</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11">
-        <v>1.1870099999999999</v>
-      </c>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="18"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="22"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -9437,7 +9514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>2^16</f>
         <v>65536</v>
@@ -9445,11 +9522,11 @@
       <c r="B16" s="2">
         <v>0.17438600000000001</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
+        <v>0.18948300000000001</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.13383800000000001</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.18948300000000001</v>
       </c>
       <c r="E16" s="2">
         <v>0.23060900000000001</v>
@@ -9463,11 +9540,11 @@
       <c r="B17" s="2">
         <v>0.333648</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
+        <v>0.354765</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.31073499999999998</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.354765</v>
       </c>
       <c r="E17" s="2">
         <v>0.40346100000000001</v>
@@ -9481,11 +9558,11 @@
       <c r="B18" s="2">
         <v>0.77481299999999997</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
+        <v>0.56638299999999997</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.653586</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.56638299999999997</v>
       </c>
       <c r="E18" s="2">
         <v>0.80803199999999997</v>
@@ -9499,11 +9576,11 @@
       <c r="B19" s="2">
         <v>1.23621</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="6">
+        <v>1.1656899999999999</v>
+      </c>
+      <c r="D19" s="2">
         <v>1.22679</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1.1656899999999999</v>
       </c>
       <c r="E19" s="2">
         <v>1.56603</v>
@@ -9517,11 +9594,11 @@
       <c r="B20" s="2">
         <v>2.4919799999999999</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
+        <v>2.24092</v>
+      </c>
+      <c r="D20" s="2">
         <v>2.6327199999999999</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2.24092</v>
       </c>
       <c r="E20" s="2">
         <v>3.6441300000000001</v>
@@ -9535,11 +9612,11 @@
       <c r="B21" s="2">
         <v>5.383</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
+        <v>5.0702199999999999</v>
+      </c>
+      <c r="D21" s="2">
         <v>5.3649500000000003</v>
-      </c>
-      <c r="D21" s="6">
-        <v>5.0702199999999999</v>
       </c>
       <c r="E21" s="2">
         <v>6.8844099999999999</v>
@@ -9553,11 +9630,11 @@
       <c r="B22" s="2">
         <v>14.951000000000001</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
+        <v>12.7171</v>
+      </c>
+      <c r="D22" s="2">
         <v>13.696</v>
-      </c>
-      <c r="D22" s="6">
-        <v>12.7171</v>
       </c>
       <c r="E22" s="2">
         <v>16.9481</v>
@@ -9571,11 +9648,11 @@
       <c r="B23" s="2">
         <v>30.981100000000001</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
+        <v>29.087599999999998</v>
+      </c>
+      <c r="D23" s="2">
         <v>30.275300000000001</v>
-      </c>
-      <c r="D23" s="6">
-        <v>29.087599999999998</v>
       </c>
       <c r="E23" s="2">
         <v>35.036099999999998</v>
@@ -9589,11 +9666,11 @@
       <c r="B24" s="2">
         <v>59.7196</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="6">
+        <v>57.0304</v>
+      </c>
+      <c r="D24" s="2">
         <v>59.5214</v>
-      </c>
-      <c r="D24" s="6">
-        <v>57.0304</v>
       </c>
       <c r="E24" s="2">
         <v>71.843100000000007</v>
@@ -9607,11 +9684,11 @@
       <c r="B25" s="2">
         <v>139.08199999999999</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
+        <v>134.66499999999999</v>
+      </c>
+      <c r="D25" s="2">
         <v>136.571</v>
-      </c>
-      <c r="D25" s="6">
-        <v>134.66499999999999</v>
       </c>
       <c r="E25" s="2">
         <v>162.11199999999999</v>
@@ -9619,51 +9696,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="M1:N2"/>
@@ -9678,6 +9710,51 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9688,7 +9765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1063F5B5-CE0E-4740-ACB8-118ADF24D602}">
   <dimension ref="A4:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
